--- a/배포기술서/5조_개발환경정의.xlsx
+++ b/배포기술서/5조_개발환경정의.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.112.46022"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="배포기술서_최종" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>내용/회차</t>
   </si>
@@ -956,6 +956,13 @@
   </si>
   <si>
     <t>&lt;개발환경&gt;                                                                                                                                                                        **붉은색으로 표시된 항목은 사용여부 검토 중</t>
+  </si>
+  <si>
+    <t>&lt;빌드시 dependecy선택&gt;
+Spring Dev Tools, Spring Web, Lombok, MySQL Driver,  Spring Data JPA</t>
+  </si>
+  <si>
+    <t>JDK 11</t>
   </si>
 </sst>
 </file>
@@ -2405,9 +2412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>511810</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>509905</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>197485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2431,8 +2438,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12873990" y="22225"/>
-          <a:ext cx="8907780" cy="7298690"/>
+          <a:off x="12871450" y="22225"/>
+          <a:ext cx="8905875" cy="7296150"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -2642,7 +2649,7 @@
   <dimension ref="B1:G992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43000000" defaultRowHeight="15.750000" customHeight="1"/>
@@ -2754,7 +2761,7 @@
         <v>189</v>
       </c>
       <c r="F9" s="78" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="G9" s="69"/>
     </row>
@@ -2765,7 +2772,7 @@
         <v>152</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>192</v>
@@ -2966,151 +2973,16 @@
       <c r="F24" s="17"/>
     </row>
     <row r="25" ht="18.000000" customHeight="1"/>
-    <row r="28" spans="2:7">
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="0"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="0"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="0"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="0"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="0"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="0"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="0"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="0"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="0"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="0"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="0"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="0"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="0"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="0"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="0"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="0"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="0"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="0"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="0"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="F59" s="0"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="F60" s="0"/>
-    </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="6:6">
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="6:6">
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="6:6">
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="6:6">
       <c r="F64" s="17"/>
     </row>
     <row r="65" spans="6:6">
